--- a/daily-reconstructed-data-xlsx/covid-19-22-03-2020.xlsx
+++ b/daily-reconstructed-data-xlsx/covid-19-22-03-2020.xlsx
@@ -400,7 +400,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -436,7 +436,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1887,14 @@
         </is>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="2">
         <v>43896</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1905,14 +1905,14 @@
         </is>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2">
         <v>43897</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1959,14 +1959,14 @@
         </is>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C89" s="2">
         <v>43900</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1977,14 +1977,14 @@
         </is>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C90" s="2">
         <v>43901</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -1995,14 +1995,14 @@
         </is>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C91" s="2">
         <v>43902</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2013,14 +2013,14 @@
         </is>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C92" s="2">
         <v>43903</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2031,14 +2031,14 @@
         </is>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C93" s="2">
         <v>43904</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2049,14 +2049,14 @@
         </is>
       </c>
       <c r="B94">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C94" s="2">
         <v>43905</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2085,14 +2085,14 @@
         </is>
       </c>
       <c r="B96">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C96" s="2">
         <v>43907</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2103,14 +2103,14 @@
         </is>
       </c>
       <c r="B97">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C97" s="2">
         <v>43908</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2139,14 +2139,14 @@
         </is>
       </c>
       <c r="B99">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2">
         <v>43910</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2157,14 +2157,14 @@
         </is>
       </c>
       <c r="B100">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2">
         <v>43911</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5764,7 +5764,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5962,7 +5962,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6520,7 +6520,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7294,7 +7294,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7348,7 +7348,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7402,7 +7402,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7618,7 +7618,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -8014,7 +8014,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>estimated</t>
         </is>
       </c>
     </row>
@@ -8050,7 +8050,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8104,7 +8104,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8248,7 +8248,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8590,7 +8590,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8662,7 +8662,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8914,7 +8914,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8932,7 +8932,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -8986,7 +8986,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9202,7 +9202,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9238,7 +9238,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9292,7 +9292,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9454,7 +9454,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9472,7 +9472,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9544,7 +9544,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9598,7 +9598,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9634,7 +9634,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9814,7 +9814,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9976,7 +9976,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10030,7 +10030,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10066,7 +10066,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10102,7 +10102,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10138,7 +10138,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10156,7 +10156,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10192,7 +10192,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10336,7 +10336,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10408,7 +10408,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10426,7 +10426,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10642,7 +10642,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10678,7 +10678,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10732,7 +10732,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10786,7 +10786,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10822,7 +10822,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10894,7 +10894,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -10984,7 +10984,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11002,7 +11002,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11092,7 +11092,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11110,7 +11110,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11128,7 +11128,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11164,7 +11164,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11182,7 +11182,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11218,7 +11218,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11254,7 +11254,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11272,7 +11272,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11398,7 +11398,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11524,7 +11524,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11542,7 +11542,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11578,7 +11578,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11614,7 +11614,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11632,7 +11632,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11668,7 +11668,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11686,7 +11686,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11704,7 +11704,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11722,7 +11722,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11794,7 +11794,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11812,7 +11812,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11848,7 +11848,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11866,7 +11866,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11920,7 +11920,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11938,7 +11938,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -11992,7 +11992,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12010,7 +12010,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12118,7 +12118,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12136,7 +12136,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12154,7 +12154,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12172,7 +12172,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12226,7 +12226,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12262,7 +12262,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12316,7 +12316,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12334,7 +12334,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12352,7 +12352,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12388,7 +12388,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12406,7 +12406,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12424,7 +12424,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12460,7 +12460,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12496,7 +12496,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12514,7 +12514,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12532,7 +12532,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12550,7 +12550,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12586,7 +12586,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12604,7 +12604,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12622,7 +12622,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12730,7 +12730,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12748,7 +12748,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12766,7 +12766,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12784,7 +12784,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12802,7 +12802,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12820,7 +12820,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12874,7 +12874,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12928,7 +12928,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13000,7 +13000,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13036,7 +13036,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13054,7 +13054,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13126,7 +13126,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13144,7 +13144,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13216,7 +13216,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13234,7 +13234,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13252,7 +13252,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13270,7 +13270,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13306,7 +13306,7 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13342,7 +13342,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13360,7 +13360,7 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13396,7 +13396,7 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13432,7 +13432,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13450,7 +13450,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13468,7 +13468,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13486,7 +13486,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13504,7 +13504,7 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13540,7 +13540,7 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13558,7 +13558,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13576,7 +13576,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13612,7 +13612,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13630,7 +13630,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13648,7 +13648,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13702,7 +13702,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13720,7 +13720,7 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13756,7 +13756,7 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13774,7 +13774,7 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13810,7 +13810,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13828,7 +13828,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13846,7 +13846,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13864,7 +13864,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13882,7 +13882,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13918,7 +13918,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13936,7 +13936,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13972,7 +13972,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -13990,7 +13990,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14008,7 +14008,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14026,7 +14026,7 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14044,7 +14044,7 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14080,7 +14080,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14098,7 +14098,7 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14116,7 +14116,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14134,7 +14134,7 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14152,7 +14152,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14188,7 +14188,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14224,7 +14224,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14242,7 +14242,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14260,7 +14260,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14278,7 +14278,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14296,7 +14296,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14314,7 +14314,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14332,7 +14332,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14350,7 +14350,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14368,7 +14368,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14386,7 +14386,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14404,7 +14404,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14440,7 +14440,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14476,7 +14476,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14494,7 +14494,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14530,7 +14530,7 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14548,7 +14548,7 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14566,7 +14566,7 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14584,7 +14584,7 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14602,7 +14602,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14620,7 +14620,7 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14638,7 +14638,7 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14656,7 +14656,7 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14674,7 +14674,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14692,7 +14692,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14710,7 +14710,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14728,7 +14728,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14764,7 +14764,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14782,7 +14782,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14800,7 +14800,7 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14836,7 +14836,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14854,7 +14854,7 @@
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14872,7 +14872,7 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14890,7 +14890,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14926,7 +14926,7 @@
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14962,7 +14962,7 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14980,7 +14980,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -14998,7 +14998,7 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15070,7 +15070,7 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15088,7 +15088,7 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15178,7 +15178,7 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15214,7 +15214,7 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15232,7 +15232,7 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15250,7 +15250,7 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15268,7 +15268,7 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15286,7 +15286,7 @@
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15322,7 +15322,7 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15340,7 +15340,7 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15358,7 +15358,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15376,7 +15376,7 @@
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15412,7 +15412,7 @@
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15448,7 +15448,7 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15466,7 +15466,7 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15484,7 +15484,7 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15502,7 +15502,7 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15520,7 +15520,7 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15538,7 +15538,7 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15556,7 +15556,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15592,7 +15592,7 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15610,7 +15610,7 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15628,7 +15628,7 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15646,7 +15646,7 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
@@ -15682,7 +15682,7 @@
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>observed</t>
         </is>
       </c>
     </row>
